--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04467366666666667</v>
+        <v>0.3580396666666667</v>
       </c>
       <c r="H2">
-        <v>0.134021</v>
+        <v>1.074119</v>
       </c>
       <c r="I2">
-        <v>0.009984424503391825</v>
+        <v>0.07478320321406828</v>
       </c>
       <c r="J2">
-        <v>0.009984424503391825</v>
+        <v>0.07478320321406827</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.04467366666666667</v>
+        <v>0.3580396666666667</v>
       </c>
       <c r="N2">
-        <v>0.134021</v>
+        <v>1.074119</v>
       </c>
       <c r="O2">
-        <v>0.009984424503391825</v>
+        <v>0.07478320321406828</v>
       </c>
       <c r="P2">
-        <v>0.009984424503391825</v>
+        <v>0.07478320321406827</v>
       </c>
       <c r="Q2">
-        <v>0.001995736493444444</v>
+        <v>0.1281924029067778</v>
       </c>
       <c r="R2">
-        <v>0.017961628441</v>
+        <v>1.153731626161</v>
       </c>
       <c r="S2">
-        <v>9.96887326639311E-05</v>
+        <v>0.005592527482956633</v>
       </c>
       <c r="T2">
-        <v>9.96887326639311E-05</v>
+        <v>0.00559252748295663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04467366666666667</v>
+        <v>0.3580396666666667</v>
       </c>
       <c r="H3">
-        <v>0.134021</v>
+        <v>1.074119</v>
       </c>
       <c r="I3">
-        <v>0.009984424503391825</v>
+        <v>0.07478320321406828</v>
       </c>
       <c r="J3">
-        <v>0.009984424503391825</v>
+        <v>0.07478320321406827</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>7.978489</v>
       </c>
       <c r="O3">
-        <v>0.5943890962732866</v>
+        <v>0.555484973478924</v>
       </c>
       <c r="P3">
-        <v>0.5943890962732866</v>
+        <v>0.555484973478924</v>
       </c>
       <c r="Q3">
-        <v>0.1188094526965556</v>
+        <v>0.952205180687889</v>
       </c>
       <c r="R3">
-        <v>1.069285074269</v>
+        <v>8.569846626191</v>
       </c>
       <c r="S3">
-        <v>0.005934633057379925</v>
+        <v>0.0415409456540357</v>
       </c>
       <c r="T3">
-        <v>0.005934633057379925</v>
+        <v>0.0415409456540357</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,22 +649,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04467366666666667</v>
+        <v>0.3580396666666667</v>
       </c>
       <c r="H4">
-        <v>0.134021</v>
+        <v>1.074119</v>
       </c>
       <c r="I4">
-        <v>0.009984424503391825</v>
+        <v>0.07478320321406828</v>
       </c>
       <c r="J4">
-        <v>0.009984424503391825</v>
+        <v>0.07478320321406827</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,22 +679,22 @@
         <v>5.310497</v>
       </c>
       <c r="O4">
-        <v>0.3956264792233216</v>
+        <v>0.3697318233070078</v>
       </c>
       <c r="P4">
-        <v>0.3956264792233216</v>
+        <v>0.3697318233070078</v>
       </c>
       <c r="Q4">
-        <v>0.07907979093744444</v>
+        <v>0.6337895252381112</v>
       </c>
       <c r="R4">
-        <v>0.7117181184369999</v>
+        <v>5.704105727143</v>
       </c>
       <c r="S4">
-        <v>0.003950102713347969</v>
+        <v>0.02764973007707595</v>
       </c>
       <c r="T4">
-        <v>0.003950102713347969</v>
+        <v>0.02764973007707594</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,40 +723,40 @@
         <v>7.978489</v>
       </c>
       <c r="I5">
-        <v>0.5943890962732866</v>
+        <v>0.555484973478924</v>
       </c>
       <c r="J5">
-        <v>0.5943890962732866</v>
+        <v>0.555484973478924</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04467366666666667</v>
+        <v>0.3580396666666667</v>
       </c>
       <c r="N5">
-        <v>0.134021</v>
+        <v>1.074119</v>
       </c>
       <c r="O5">
-        <v>0.009984424503391825</v>
+        <v>0.07478320321406828</v>
       </c>
       <c r="P5">
-        <v>0.009984424503391825</v>
+        <v>0.07478320321406827</v>
       </c>
       <c r="Q5">
-        <v>0.1188094526965556</v>
+        <v>0.952205180687889</v>
       </c>
       <c r="R5">
-        <v>1.069285074269</v>
+        <v>8.569846626191</v>
       </c>
       <c r="S5">
-        <v>0.005934633057379925</v>
+        <v>0.0415409456540357</v>
       </c>
       <c r="T5">
-        <v>0.005934633057379925</v>
+        <v>0.0415409456540357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>7.978489</v>
       </c>
       <c r="I6">
-        <v>0.5943890962732866</v>
+        <v>0.555484973478924</v>
       </c>
       <c r="J6">
-        <v>0.5943890962732866</v>
+        <v>0.555484973478924</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>7.978489</v>
       </c>
       <c r="O6">
-        <v>0.5943890962732866</v>
+        <v>0.555484973478924</v>
       </c>
       <c r="P6">
-        <v>0.5943890962732866</v>
+        <v>0.555484973478924</v>
       </c>
       <c r="Q6">
         <v>7.072920747013444</v>
@@ -815,10 +815,10 @@
         <v>63.65628672312099</v>
       </c>
       <c r="S6">
-        <v>0.3532983977685744</v>
+        <v>0.3085635557608809</v>
       </c>
       <c r="T6">
-        <v>0.3532983977685744</v>
+        <v>0.3085635557608809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>7.978489</v>
       </c>
       <c r="I7">
-        <v>0.5943890962732866</v>
+        <v>0.555484973478924</v>
       </c>
       <c r="J7">
-        <v>0.5943890962732866</v>
+        <v>0.555484973478924</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,10 +865,10 @@
         <v>5.310497</v>
       </c>
       <c r="O7">
-        <v>0.3956264792233216</v>
+        <v>0.3697318233070078</v>
       </c>
       <c r="P7">
-        <v>0.3956264792233216</v>
+        <v>0.3697318233070078</v>
       </c>
       <c r="Q7">
         <v>4.707749099892555</v>
@@ -877,10 +877,10 @@
         <v>42.369741899033</v>
       </c>
       <c r="S7">
-        <v>0.2351560654473323</v>
+        <v>0.2053804720640074</v>
       </c>
       <c r="T7">
-        <v>0.2351560654473323</v>
+        <v>0.2053804720640074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,40 +909,40 @@
         <v>5.310497</v>
       </c>
       <c r="I8">
-        <v>0.3956264792233216</v>
+        <v>0.3697318233070078</v>
       </c>
       <c r="J8">
-        <v>0.3956264792233216</v>
+        <v>0.3697318233070078</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.04467366666666667</v>
+        <v>0.3580396666666667</v>
       </c>
       <c r="N8">
-        <v>0.134021</v>
+        <v>1.074119</v>
       </c>
       <c r="O8">
-        <v>0.009984424503391825</v>
+        <v>0.07478320321406828</v>
       </c>
       <c r="P8">
-        <v>0.009984424503391825</v>
+        <v>0.07478320321406827</v>
       </c>
       <c r="Q8">
-        <v>0.07907979093744444</v>
+        <v>0.6337895252381112</v>
       </c>
       <c r="R8">
-        <v>0.7117181184369999</v>
+        <v>5.704105727143</v>
       </c>
       <c r="S8">
-        <v>0.003950102713347969</v>
+        <v>0.02764973007707595</v>
       </c>
       <c r="T8">
-        <v>0.003950102713347969</v>
+        <v>0.02764973007707594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,10 +971,10 @@
         <v>5.310497</v>
       </c>
       <c r="I9">
-        <v>0.3956264792233216</v>
+        <v>0.3697318233070078</v>
       </c>
       <c r="J9">
-        <v>0.3956264792233216</v>
+        <v>0.3697318233070078</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,10 +989,10 @@
         <v>7.978489</v>
       </c>
       <c r="O9">
-        <v>0.5943890962732866</v>
+        <v>0.555484973478924</v>
       </c>
       <c r="P9">
-        <v>0.5943890962732866</v>
+        <v>0.555484973478924</v>
       </c>
       <c r="Q9">
         <v>4.707749099892555</v>
@@ -1001,10 +1001,10 @@
         <v>42.369741899033</v>
       </c>
       <c r="S9">
-        <v>0.2351560654473323</v>
+        <v>0.2053804720640074</v>
       </c>
       <c r="T9">
-        <v>0.2351560654473323</v>
+        <v>0.2053804720640074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,10 +1033,10 @@
         <v>5.310497</v>
       </c>
       <c r="I10">
-        <v>0.3956264792233216</v>
+        <v>0.3697318233070078</v>
       </c>
       <c r="J10">
-        <v>0.3956264792233216</v>
+        <v>0.3697318233070078</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,10 +1051,10 @@
         <v>5.310497</v>
       </c>
       <c r="O10">
-        <v>0.3956264792233216</v>
+        <v>0.3697318233070078</v>
       </c>
       <c r="P10">
-        <v>0.3956264792233216</v>
+        <v>0.3697318233070078</v>
       </c>
       <c r="Q10">
         <v>3.133486487445444</v>
@@ -1063,10 +1063,10 @@
         <v>28.201378387009</v>
       </c>
       <c r="S10">
-        <v>0.1565203110626413</v>
+        <v>0.1367016211659245</v>
       </c>
       <c r="T10">
-        <v>0.1565203110626413</v>
+        <v>0.1367016211659244</v>
       </c>
     </row>
   </sheetData>
